--- a/biology/Écologie/Forêts_tempérées_de_l'Est/Forêts_tempérées_de_l'Est.xlsx
+++ b/biology/Écologie/Forêts_tempérées_de_l'Est/Forêts_tempérées_de_l'Est.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_temp%C3%A9r%C3%A9es_de_l%27Est</t>
+          <t>Forêts_tempérées_de_l'Est</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts tempérées de l'Est (anglais : Eastern Temperate Forest) sont une écorégion de niveau I de la commission de coopération environnementale. Cette région écologique couvre le sud-est du Canada et l'est des États-Unis.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_temp%C3%A9r%C3%A9es_de_l%27Est</t>
+          <t>Forêts_tempérées_de_l'Est</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Forêts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts de cette écorégion sont riches et variées. Elles sont composées à l'est de forêts de hêtre à grandes feuilles et d'érable ainsi que de forêts d'érable et de tilleul d'Amérique[1]. Dans le Midwest, on retrouve plutôt une association de chênes et de caryers[1]. Finalement dans le sud des Appalaches, on retrouve plutôt une association de chênes, de caryers et de pins[1]. Les autres essences répandues sont le frêne, l'orme, le cerisier tardif, le tulipier de Virginie, le liquidambar à Styrax, le micocoulier occidental, le plaqueminier de Virginie, le genévrier rouge et le cornouiller de Floride[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts de cette écorégion sont riches et variées. Elles sont composées à l'est de forêts de hêtre à grandes feuilles et d'érable ainsi que de forêts d'érable et de tilleul d'Amérique. Dans le Midwest, on retrouve plutôt une association de chênes et de caryers. Finalement dans le sud des Appalaches, on retrouve plutôt une association de chênes, de caryers et de pins. Les autres essences répandues sont le frêne, l'orme, le cerisier tardif, le tulipier de Virginie, le liquidambar à Styrax, le micocoulier occidental, le plaqueminier de Virginie, le genévrier rouge et le cornouiller de Floride.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_temp%C3%A9r%C3%A9es_de_l%27Est</t>
+          <t>Forêts_tempérées_de_l'Est</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Division</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plaines à forêts mixtes (Mixedwood plains)
-Eastern Great Lakes and Hudson lowland[2]
+Eastern Great Lakes and Hudson lowland
 Basses-terres du lac Érié (Lake Erie Lowlands)
 Northern Appalachians Plateau and Uplands
 North Central Hardwood Forests
@@ -553,8 +569,8 @@
 Southern Michigan/Northern Indiana Drift Plains
 Huron/Erie Lake Plains
 Northeastern Coastal Zone
-Maine/New Brunswick Plains and Hills [3],[4]
-Basses-terres des Maritimes (Maritime Lowland)[5]
+Maine/New Brunswick Plains and Hills ,
+Basses-terres des Maritimes (Maritime Lowland)
 Erie Drift Plain
 Plaines du centre des États-Unis (Central USA Plains)
 Southeastern Wisconsin Till Plains
